--- a/ig/main/StructureDefinition-fr-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T12:41:03+00:00</t>
+    <t>2023-04-13T12:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
